--- a/assets/data/20250418_trend_summary.xlsx
+++ b/assets/data/20250418_trend_summary.xlsx
@@ -1542,14 +1542,122 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>新质生产力</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>创新驱动发展</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>量子计算</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>量子通信</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>元宇宙</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>知识产权保护</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1560,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,10 +1691,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---------</t>
+          <t>新质生产力</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>创新驱动发展</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>量子通信</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>量子计算</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>知识产权保护</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>元宇宙</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>氢能</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>科技体制改革</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>国际人才服务</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>碳纤维复合材料</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>技术标准互认</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>生物降解材料</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>1</v>
       </c>
     </row>

--- a/assets/data/20250418_trend_summary.xlsx
+++ b/assets/data/20250418_trend_summary.xlsx
@@ -497,22 +497,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87 </t>
+          <t xml:space="preserve"> 47 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院发布《新质生产力发展规划(2025-2035年)》，明确未来十年发展路径和重点任务，提出到2035年基本建成全球新质生产力发展高地。 </t>
+          <t xml:space="preserve"> 多地密集发布新质生产力发展政策，聚焦人工智能、量子信息等未来产业，促进数字经济与实体经济深度融合 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/12/content_6937321.htm </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/14/content_6126538.htm </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《新质生产力发展规划(2025-2035年)》设立了三个阶段性目标：2027年初步建立新质生产力发展体系，2030年显著增强新质生产力发展能力，2035年基本建成全球新质生产力发展高地。规划强调科技创新、数字化转型和现代化产业体系建设，部署了集成电路、人工智能、量子科技等十大重点领域。 </t>
+          <t xml:space="preserve"> 国务院发布《关于加快新质生产力发展的指导意见》，提出六大任务：强化科技创新引领、加快未来产业培育、推动传统产业转型升级、促进数实融合、优化区域布局和提升开放水平。各省市随后密集发布配套政策，北京重点布局智能机器人、上海聚焦集成电路，广东强调数字经济，都在系统性推进科技创新与产业转型升级。 </t>
         </is>
       </c>
     </row>
@@ -524,130 +524,130 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 76 </t>
+          <t xml:space="preserve"> 42 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部宣布启动"新一代人工智能开放创新平台"计划，聚焦大模型应用，将在全国设立20个行业专业平台，促进AI与实体经济深度融合。 </t>
+          <t xml:space="preserve"> 国家人工智能大模型创新应用先导区建设加速，多个行业深度融合AI技术，伦理与安全监管框架逐步完善 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202504/t20250415_189532.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202504/t20250413_1405782.html </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部4月15日宣布的"新一代人工智能开放创新平台"计划将重点推动大模型技术在工业、农业、医疗、金融等重点领域的规模化应用。首批10个平台已确定，涉及智能制造、智慧医疗和智能交通等领域，国家将提供政策支持和研发经费，鼓励地方政府和企业配套投入，目标是到2027年培育100个AI应用标杆案例。 </t>
+          <t xml:space="preserve"> 国家发改委批复同意首批10个城市开展国家人工智能大模型创新应用先导区建设，加速AI与制造、医疗、交通等领域融合创新。科技部发布《人工智能伦理规范指引》，建立风险评估和安全测试框架。多地企业展示AI应用新成果，包括自动驾驶出租车、AI辅助医疗诊断系统和智能工厂解决方案，产业链上下游协同发展。 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 创新驱动发展 </t>
+          <t xml:space="preserve"> 数字经济政策 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 65 </t>
+          <t xml:space="preserve"> 38 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中央全面深化改革委员会审议通过《创新驱动发展战略升级版实施方案》，提出构建更高水平的自立自强科技创新体系。 </t>
+          <t xml:space="preserve"> 数字经济立法加速推进，国家级数字经济示范区扩容，数字人民币试点范围扩大，云计算和大数据产业获政策支持 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/politics/2025-04/16/c_1130425689.htm </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/16/content_6126843.htm </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中央全面深化改革委员会第十四次会议审议通过的《创新驱动发展战略升级版实施方案》强调把科技自立自强作为国家发展的战略支撑。方案提出优化国家创新体系，加快关键核心技术攻关，完善科技成果转化机制，强化企业创新主体地位，加强基础研究投入，并推动科技、教育、人才和产业深度融合，形成创新驱动发展新格局。 </t>
+          <t xml:space="preserve"> 全国人大常委会审议《数字经济促进法》草案，首次从国家立法层面明确数字经济发展路径。国务院批复新增5个国家数字经济创新发展试验区。央行扩大数字人民币试点范围至20个省市。工信部发布《云计算与大数据产业高质量发展行动计划》，提出到2027年产业规模突破4万亿元。各地纷纷出台数字经济发展措施，如上海的"数字新基建三年行动计划"和深圳的"数字经济十条"。 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子通信 </t>
+          <t xml:space="preserve"> 科技创新政策 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62 </t>
+          <t xml:space="preserve"> 35 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部与中科院联合宣布启动"量子科技创新2030"重大项目第二阶段，将建设全球最大规模量子通信网络，连接20个城市。 </t>
+          <t xml:space="preserve"> 国家科技创新2025规划落地，"十四五"国家科技创新基地布局优化，基础研究投入大幅提升 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xwzx/202504/t20250414_189525.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250412_188542.html </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "量子科技创新2030"重大项目第二阶段将投资200亿元，重点突破量子通信远距离稳定传输、抗干扰和量子密钥分发等核心技术。计划在2027年前实现覆盖京津冀、长三角、粤港澳大湾区等经济圈的量子通信骨干网络，首批接入金融、能源和政务等关键领域。项目还将支持量子计算、量子精密测量等交叉领域研究，培育量子信息产业生态。 </t>
+          <t xml:space="preserve"> 科技部印发《"十四五"科技创新规划实施中期评估报告》，指出基础研究经费占R&amp;D比重已达6.2%，重大科技基础设施建设加速。国务院常务会议审议通过《关于深化科技创新体制机制改革的若干措施》，进一步释放创新活力。国家自然科学基金委优化资助体系，加大"从0到1"原创研究支持力度。各地科技厅集中发布2025年度重点科技项目指南，聚焦核心技术攻关。 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 战略新兴产业 </t>
+          <t xml:space="preserve"> 量子技术 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58 </t>
+          <t xml:space="preserve"> 31 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委发布《战略性新兴产业集群培育行动计划(2025-2027年)》，计划三年内打造50个超千亿级的战略性新兴产业集群。 </t>
+          <t xml:space="preserve"> 量子计算实现重大突破，国家量子计算创新中心落户合肥，量子通信产业化加速推进 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250413_1378905.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/xinwen/202504/17/content_6127054.htm </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《战略性新兴产业集群培育行动计划》提出到2027年培育50个超千亿级产业集群，涵盖新一代信息技术、高端装备制造、新材料、生物医药等九大领域。计划提出"一集群一政策"的差异化支持措施，设立1000亿元战略性新兴产业引导基金，完善产业链上下游协同创新机制。各地区将结合区域特色培育差异化产业集群，形成区域协同发展格局。 </t>
+          <t xml:space="preserve"> 中国科学家实现76比特超导量子计算系统，量子优势再获突破。国家发改委批复建设国家量子计算创新中心，落户合肥。科技部启动量子信息科技创新重大项目，投入100亿元支持量子通信和量子计算研发。工信部发布《量子信息技术产业发展行动计划》，推动建立产业生态。京沪粤三地启动量子技术联合攻关，推动量子信息技术产业化应用示范区建设。 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技成果转化 </t>
+          <t xml:space="preserve"> 战略新兴产业 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53 </t>
+          <t xml:space="preserve"> 28 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部、财政部联合发布《科技成果转化引导基金管理办法(2025版)》，设立2000亿元国家级引导基金，支持高校院所科技成果产业化。 </t>
+          <t xml:space="preserve"> 国家战略性新兴产业集群扩容升级，首批未来产业先导区获批，增强产业链韧性成为重点 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/gfxwj2025/202504/t20250417_189546.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202504/t20250415_1406071.html </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 新版《科技成果转化引导基金管理办法》设立2000亿元国家级引导基金，采用"母基金+直投"模式，重点支持高校院所科技成果转化。基金将通过市场化方式运作，引导社会资本参与，优先支持基础研究成果转化和"卡脖子"技术产业化。新办法还简化了科研人员持股和兼职创业审批流程，允许科研人员在职创办企业期间保留人事关系最长5年，并明确了科技成果作价入股的定价机制。 </t>
+          <t xml:space="preserve"> 国家发改委发布《战略性新兴产业集群优化升级实施方案》，提出建设100个国家级产业集群。批复建设首批10个国家未来产业先导区，布局量子信息、前沿新材料等领域。工信部印发《战略性新兴产业链韧性提升行动计划》，提出打造20个产业链创新联合体。各地围绕新材料、生物制药、新能源汽车等领域出台专项政策，设立战略性新兴产业发展专项资金。 </t>
         </is>
       </c>
     </row>
@@ -659,400 +659,400 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47 </t>
+          <t xml:space="preserve"> 26 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《集成电路产业高质量发展行动计划(2025-2027年)》，提出三年内实现关键领域芯片自给率达到70%的目标。 </t>
+          <t xml:space="preserve"> 国产半导体加速突围，集成电路产业链自主创新加速，多地出台支持政策，先进工艺研发获重大进展 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/zcjd/gzdt/art/2025/art_9e293c78be204fe896478517a5f0a6c5.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_242f9262359c4fb18e80c38dcb34c95c.html </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《集成电路产业高质量发展行动计划》提出到2027年，我国集成电路产业规模突破3万亿元，关键领域芯片自给率达到70%的目标。计划重点突破14nm及以下先进工艺、高端GPU、FPGA等卡脖子技术，培育5-8家具有国际竞争力的龙头企业。行动计划还明确了降低企业税负、加强知识产权保护和支持设备国产化等配套政策，同时设立1500亿元集成电路产业投资基金，为产业发展提供资金支持。 </t>
+          <t xml:space="preserve"> 工信部发布《关于促进集成电路产业高质量发展的若干政策》，从技术攻关、人才培养、知识产权保护等多维度支持产业发展。国家集成电路产业投资基金三期启动，规模5000亿元。上海、深圳等地出台集成电路产业支持政策，提供税收优惠和研发补贴。国内领先企业在12nm、28nm等工艺节点实现重要突破，EDA工具、设计IP等产业链配套能力明显提升。企业间协同创新加速，产业链本土化率持续提高。 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国际创新平台 </t>
+          <t xml:space="preserve"> 未来产业政策 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42 </t>
+          <t xml:space="preserve"> 25 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院批复同意在上海、北京、深圳、合肥设立首批国家级国际科技创新合作中心，打造高水平对外开放创新平台。 </t>
+          <t xml:space="preserve"> 国家发改委公布首批未来产业先导区名单，聚焦合成生物、商业航天等八大领域，多地推出未来产业行动计划 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/15/content_6937490.htm </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202504/t20250415_1406071.html </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院批复同意在上海、北京、深圳、合肥设立首批国家级国际科技创新合作中心，作为促进国际科技合作的重要平台。这些中心将在人才引进、国际联合研发、科技成果转化等方面享有更大自主权，可实施更加开放的人才政策和科研项目管理制度。中心将重点发展集成电路、生物医药、人工智能等战略性产业，建设一批国际联合实验室，并推动"一带一路"科技创新合作。 </t>
+          <t xml:space="preserve"> 国家发改委公布首批10个国家未来产业先导区建设名单，覆盖商业航天、量子信息、合成生物等8个领域。国务院印发《未来产业创新发展纲要》，明确提出到2027年培育形成一批具有国际竞争力的未来产业。科技部、工信部联合启动未来产业技术研发专项，首批支持脑机接口、太赫兹通信等前沿领域。上海、深圳等城市发布未来产业发展三年行动计划，配套设立百亿级产业引导基金，吸引全球创新资源聚集。 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 元宇宙 </t>
+          <t xml:space="preserve"> 创新驱动发展 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《虚拟现实与元宇宙产业创新发展行动计划(2025-2027年)》，提出推动元宇宙核心技术突破和产业生态构建。 </t>
+          <t xml:space="preserve"> 科技创新支撑高质量发展取得新进展，"十四五"创新体系建设中期评估完成，创新型城市建设加速 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_7d8e0254a5d142c6ab07cb2dba52b103.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/kjtjbg/202504/t20250415_188743.html </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《虚拟现实与元宇宙产业创新发展行动计划》提出到2027年培育100个元宇宙标杆应用和50个创新产品，打造10个具有国际影响力的元宇宙产业集群。计划重点突破高性能显示、感知交互、实时渲染等关键技术，建设元宇宙创新基地和产业联盟。该计划还提出推动元宇宙在工业设计、智慧城市、文化旅游、医疗健康等领域的规模化应用，同时加强行业规范与标准制定，促进产业健康有序发展。 </t>
+          <t xml:space="preserve"> 科技部发布《"十四五"国家创新体系建设规划中期评估报告》，显示基础研究体系不断健全，产学研深度融合取得新进展。国务院批复同意北京、上海等8城市创建第二批创新型城市，支持先行先试科技体制改革。教育部、科技部联合启动新一轮"高校基础研究珠峰计划"，加强创新人才培养。各地优化科技成果转化机制，如江苏"科技成果直通车"和浙江"科技创新券"制度，促进科技与经济深度融合。 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 氢能 </t>
+          <t xml:space="preserve"> 科技成果转化 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36 </t>
+          <t xml:space="preserve"> 22 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委、国家能源局联合发布《氢能产业高质量发展规划(2025-2030年)》，提出构建氢能全产业链，到2030年建成2000个加氢站。 </t>
+          <t xml:space="preserve"> 全国科技成果转化促进年活动启动，高校院所科技成果转化机制改革提速，知识产权转化利用效率提升 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/ghwb/202504/t20250416_1378995.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250414_188645.html </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《氢能产业高质量发展规划》提出到2030年建成覆盖主要城市群的氢能基础设施网络，包括2000个加氢站和100万辆燃料电池车辆。规划重点发展可再生能源制氢、氢能储运、燃料电池三大技术领域，建设10个国家级氢能产业示范区。规划还提出通过税收优惠、补贴引导和市场化交易等手段，降低绿氢生产成本，鼓励氢能在工业、交通和能源领域的规模化应用，推动形成"制-储-运-用"全产业链发展格局。 </t>
+          <t xml:space="preserve"> 科技部启动2025年全国科技成果转化促进年活动，举办千场技术转移对接会。教育部发布《高校科技成果转化改革创新行动方案》，赋予科研人员更大自主权。财政部、科技部联合发布《中央级科研院所科技成果转化收益分配改革试点方案》，科研人员最高可获95%收益分成。国家知识产权局推出专利开放许可新政策，推动中央企业高价值专利向中小企业转移。多地建设科技成果转化基金，如北京设立50亿元"科技成果转化创投基金"，支持高校院所成果产业化。 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 产学研结合 </t>
+          <t xml:space="preserve"> 绿色环保技术 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35 </t>
+          <t xml:space="preserve"> 21 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 教育部、科技部联合发布《高校产学研深度融合创新发展计划(2025-2030年)》，提出打造100个产学研协同创新中心。 </t>
+          <t xml:space="preserve"> 绿色低碳技术创新加速，"双碳"科技支撑体系建设取得显著成效，多地推出零碳产业示范区 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/moe_1778/202504/t20250413_684231.html </t>
+          <t xml:space="preserve"> https://www.mee.gov.cn/ywdt/tpxw/202504/t20250413_1107542.shtml </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《高校产学研深度融合创新发展计划》提出到2030年打造100个产学研协同创新中心和500个校企联合实验室，培育1000家高校科技成果转化示范企业。计划将建立高校与企业双向流动的人才机制，推动高校教师到企业挂职和企业专家到高校担任兼职教授。同时，改革科研评价机制，在教师职称评定中增加产学研合作权重，设立产学研合作专项资金，支持高校与企业联合攻关重大技术难题，并探索高校科技成果所有权和收益分配改革，提高科研人员成果转化积极性。 </t>
+          <t xml:space="preserve"> 生态环境部发布《"十四五"绿色低碳技术创新成果目录》，收录碳捕集利用、氢能等领域创新技术300余项。科技部启动"碳中和科技创新专项"，五年投入经费200亿元。工信部发布《工业领域碳达峰实施方案》，推动绿色制造和清洁生产。国家能源局印发《可再生能源与氢能融合发展行动计划》，促进多能互补创新。京津冀、长三角等地建设低碳零碳园区，实施区域能源互联网示范工程，推动新型电力系统建设。 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技体制改革 </t>
+          <t xml:space="preserve"> 生物技术 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33 </t>
+          <t xml:space="preserve"> 20 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中共中央办公厅、国务院办公厅印发《关于深化科技体制改革激发创新活力的若干措施》，提出26项改革举措。 </t>
+          <t xml:space="preserve"> 合成生物学纳入国家战略科技布局，生物制造取得突破，生物医药创新加速，生物安全监管体系建设加快 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/14/content_6937412.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/zdkjgh/202504/t20250416_188780.html </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《关于深化科技体制改革激发创新活力的若干措施》提出26项改革举措，涵盖科研管理、成果转化、人才评价等方面。重点包括：下放科研项目经费使用自主权，简化预算调整程序；改革科技人才评价机制，破除"唯论文、唯职称"；完善高校院所科技成果处置权，赋予科研人员更多权益；建立"揭榜挂帅"常态化机制；设立重大基础研究专项和青年科学家专项；推动国家实验室体系建设；加强基础研究长期稳定支持等。这些措施旨在解决科技管理"痛点"，激发创新主体活力。 </t>
+          <t xml:space="preserve"> 科技部印发《国家合成生物学科技创新规划》，明确2025-2035年发展路线图。国家发改委将合成生物学列为首批未来产业先导区重点领域。国家卫健委发布《生物医药创新"十四五"实施方案》，支持mRNA、细胞与基因治疗等前沿技术研发。科技部启动"合成生物制造技术创新中心"建设，推动生物制造产业化。科学技术部、农业农村部等六部门联合发布《生物安全科技支撑体系建设指南》，完善生物安全风险防控技术体系。 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人工智能实验室 </t>
+          <t xml:space="preserve"> 智慧城市 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北京宣布与清华、北大等高校联合成立"北京人工智能基础大模型联合实验室"，投资50亿元打造开源开放的大模型平台。 </t>
+          <t xml:space="preserve"> 新型智慧城市建设加速，国家级智慧城市试点范围扩大，城市大脑平台赋能城市治理，数字孪生城市技术成熟 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://kjj.beijing.gov.cn/col/col5096/index.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/zhengceku/202504/15/content_6126732.htm </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北京市科委、清华大学、北京大学等单位联合成立的"北京人工智能基础大模型联合实验室"获得50亿元投资，将打造具有自主知识产权的开源开放大模型平台。实验室将聚焦大模型底层架构、训练推理优化、多模态融合等前沿技术，建设国内一流的算力基础设施，包括E级智能计算中心。该实验室采用开放合作运行机制，将向社会开源核心模型和工具链，支持中小企业和开发者基于基础大模型开发各类垂直应用，培育人工智能产业生态。 </t>
+          <t xml:space="preserve"> 住建部等六部门联合发布《新型智慧城市建设指南2.0》，提出建设标准和评价体系。国家发改委批复20个城市开展智慧城市基础设施与服务能力提升试点。各地加速城市大脑建设，如杭州城市大脑升级3.0版，实现全域感知、全量计算。"数字孪生城市"建设提速，上海、深圳等地建成覆盖全市的高精度三维实景模型。智慧城市产业联盟成立，推动建立行业标准和开放生态。智慧交通、智慧医疗、智慧社区等垂直领域应用场景加速落地。 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子计算 </t>
+          <t xml:space="preserve"> 科技体制改革 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中科院宣布研制成功113量子比特超导量子计算机"悟空"，并发布开源量子计算软件平台，推动量子计算应用生态建设。 </t>
+          <t xml:space="preserve"> 新一轮科技体制改革全面深化，科研管理服务优化，"揭榜挂帅"机制推广，科技评价体系改革持续推进 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/yw/202504/t20250417_4973821.shtml </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/12/content_6126321.htm </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中科院量子信息与量子科技创新研究院宣布研制成功113量子比特超导量子计算机"悟空"，实现了量子比特数量和运算性能的双突破。该量子计算机在关键指标上达到国际领先水平，并实现了全流程自主研发。同时，中科院还发布了开源量子计算软件平台"量易"，提供量子算法开发工具和云服务接口，支持量子化学、量子机器学习等应用开发。中科院表示将与高校、企业共建量子计算应用联盟，推动量子技术在材料设计、药物研发、金融优化等领域的应用探索。 </t>
+          <t xml:space="preserve"> 中共中央、国务院印发《关于深化科技体制机制改革的实施意见》，提出八大改革任务。科技部发布《科研项目经费管理优化实施方案》，大幅减轻科研人员负担。财政部、科技部联合印发《国家重点研发计划资金管理办法》，赋予项目承担单位更大自主权。中央全面深化改革委员会审议通过《关于完善科技评价体系的指导意见》，破除"唯论文、唯职称、唯学历、唯奖项"。"揭榜挂帅"机制全面推广至重大科技项目，多地建立首席科学家负责制，激发创新活力。 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国际人才服务 </t>
+          <t xml:space="preserve"> 高端装备制造 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人力资源社会保障部发布《国际高端人才服务"一站式"平台建设指南》，在全国建设30个国际人才服务中心。 </t>
+          <t xml:space="preserve"> 高端装备制造业加速突破关键技术瓶颈，智能制造创新发展规划实施，重大技术装备首台(套)政策加码 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.mohrss.gov.cn/xxgk2020/fdzdgknr/zcfg/gfxwj/rcrs/202504/t20250415_489631.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_9c97a67935b344999b64c52c0d465d3a.html </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《国际高端人才服务"一站式"平台建设指南》提出在北京、上海、广州等30个城市建设国际人才服务中心，提供签证办理、工作许可、居留证件、社保医疗、子女教育等"一站式"服务。平台将实施更加开放的国际人才政策，包括放宽外籍高层次人才永久居留条件，简化高端人才签证和工作许可程序，允许获得永久居留权的外籍人才在特定领域创办科技型企业并担任法定代表人。此外，平台还将建立国际人才大数据库，提供精准人才引进服务，并设立国际人才社区，改善外籍人才生活环境。 </t>
+          <t xml:space="preserve"> 工信部发布《高端装备制造业创新发展行动计划》，重点突破机器人、航空发动机等关键技术。国家发改委、工信部联合印发《重大技术装备首台(套)示范应用扩大专项行动》，支持国产高端装备市场化应用。科技部启动"高端智能装备创新链"专项，推动核心零部件国产化。财政部扩大首台(套)重大技术装备保险补偿范围，降低用户采购风险。各地建设高端装备制造业创新中心，如上海智能制造创新中心、沈阳航空发动机创新中心等，加强产学研协同创新。 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6G通信 </t>
+          <t xml:space="preserve"> 氢能 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《6G技术研发行动计划(2025-2030)》，计划投入500亿元开展6G关键技术研究，2030年实现商用。 </t>
+          <t xml:space="preserve"> 氢能产业化提速，多项氢能重大项目开工建设，燃料电池车示范城市群扩容，氢能产业标准体系日趋完善 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/gxsj/jgzz/202504/t20250412_6987521.html </t>
+          <t xml:space="preserve"> http://www.nea.gov.cn/2025-04/14/c_1310838225.htm </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《6G技术研发行动计划》提出分三个阶段推进6G研发：2025-2026年完成关键技术验证，2027-2028年形成技术标准，2029-2030年实现商用部署。计划投入500亿元重点突破太赫兹通信、集成感知通信、轨道角动量多址、人工智能网络等前沿技术，构建"天地一体"网络架构。行动计划还提出建设国家6G技术研发中心和产业创新联盟，推动6G国际标准制定和知识产权布局，确保我国在全球6G技术和产业发展中的引领地位。预计6G将实现峰值速率1Tbps、时延0.1ms的性能指标，支撑元宇宙、全息通信等未来应用场景。 </t>
+          <t xml:space="preserve"> 国家能源局发布《氢能产业发展中长期规划》，明确2035年发展目标。财政部、工信部联合发布新一轮燃料电池汽车示范城市群名单，新增3个城市群。国家发改委将可再生能源制氢列为重点支持方向，启动示范项目建设。多地氢能产业集群加速形成，如张家口可再生能源制氢基地、上海临港燃料电池产业园等。国家市场监管总局发布多项氢能相关标准，包括氢气纯度、加氢站建设等。氢能"制储输用"全产业链关键技术取得重要突破，燃料电池寿命和可靠性大幅提升。 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 碳纤维复合材料 </t>
+          <t xml:space="preserve"> 科技园区政策 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部、科技部联合发布《航空航天用碳纤维复合材料创新发展行动计划》，提出突破高性能碳纤维自主制造技术。 </t>
+          <t xml:space="preserve"> 国家高新区扩容提质，科技园区高质量发展示范区建设启动，多地发布园区特色化发展措施 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/yc/wjfb/art/2025/art_e8c95d0b5a124df79427cb0ad09e1d7a.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250417_188803.html </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《航空航天用碳纤维复合材料创新发展行动计划》提出到2027年，形成完整的航空航天级碳纤维产业链，实现高性能碳纤维自主可控。计划重点突破T800、T1000级碳纤维制备技术和航空发动机用高温碳纤维复合材料制造工艺，建设5个国家级碳纤维创新中心和10个产业集群。行动计划还提出实施重大装备应用示范工程，推动碳纤维复合材料在大型客机、运载火箭、航天器等领域的规模化应用，同时加强产业链上下游协同创新，推动形成"材料-部件-整机"协同发展格局。 </t>
+          <t xml:space="preserve"> 科技部、国家发改委联合印发《国家高新区高质量发展评价办法》，强化创新能力评价权重。国务院批复新增8家国家高新区，总数达到175家。科技部启动"科技园区高质量发展示范区"建设，首批遴选10家园区。各地突出园区特色化发展，如深圳推进综合性国家科学中心建设，上海张江加速集成电路产业集聚，合肥启动量子信息科技园区建设。科技部优化科技园区管理服务，赋予园区更大政策自主权，开展科研项目直接立项改革试点。 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 数字经济政策 </t>
+          <t xml:space="preserve"> 6G通信 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院印发《数字经济创新发展试验区建设方案》，在京津冀、长三角、粤港澳大湾区等7个区域布局国家级数字经济示范区。 </t>
+          <t xml:space="preserve"> 6G技术研发全面启动，关键技术取得重要突破，国际标准研究协同推进，产学研协同创新加速 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/17/content_6937534.htm </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_f88e35a15b0047a789cfd1a2e2fb4fdd.html </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《数字经济创新发展试验区建设方案》在京津冀、长三角、粤港澳大湾区、成渝、长江中游、黄河中游、西北七个区域布局国家级数字经济示范区，赋予这些区域数据要素市场、数字贸易、跨境数据流动等方面的先行先试权。方案提出构建数字经济治理新模式，包括建立数据产权保护制度、数据要素市场交易规则和数字经济统计监测体系等。示范区将重点发展工业互联网、智慧城市、数字贸易、数字文创等领域，引导数字技术与实体经济深度融合，探索数字经济发展的"中国方案"，为全国提供可复制、可推广的经验。 </t>
+          <t xml:space="preserve"> 工信部印发《6G技术研发与标准化推进方案》，明确关键技术研发路线图。科技部设立"6G网络与通信"重点专项，五年投入60亿元。中国移动、中国电信、中国联通联合成立6G联合创新中心，启动关键技术联合攻关。国内领先企业在太赫兹通信、集成感知等6G关键技术上取得突破性进展。工信部牵头组织成立"全球6G推进组织"，加强国际协同创新。中国提出的多项6G愿景和需求已纳入ITU-R标准化进程，国际影响力持续提升。 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 知识产权保护 </t>
+          <t xml:space="preserve"> 人才引进政策 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 21 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家知识产权局发布《强化知识产权保护支撑科技自立自强行动方案(2025-2027年)》，提出健全高价值专利培育机制。 </t>
+          <t xml:space="preserve"> 科技人才引进政策升级，国际化人才特区试点扩围，外籍高层次人才服务便利化措施出台 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cnipa.gov.cn/art/2025/4/16/art_75_187654.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250414_188636.html </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《强化知识产权保护支撑科技自立自强行动方案》提出到2027年，高价值专利年度授权量增长50%，战略性新兴产业专利布局显著优化的目标。方案重点完善知识产权快速协同保护机制，在人工智能、生物制药等领域建立专利优先审查通道，将审查周期缩短至6个月以内。同时，推动建立知识产权侵权惩罚性赔偿制度，最高可达侵权所获得利益的五倍，并设立知识产权保护中心，提供"一站式"维权服务。方案还提出加强海外知识产权布局和保护，支持企业参与国际标准制定，维护国家创新安全。 </t>
+          <t xml:space="preserve"> 科技部、人社部联合发布《关于深化科技人才评价制度改革的指导意见》，破除人才评价"四唯"倾向。国家移民管理局出台《外国高层次人才签证及居留便利措施》，实施更开放的人才引进政策。科技部启动"青年科学家培养计划"，支持青年科研人员开展原创性研究。教育部发布留学人才回国创业支持计划，提供一站式服务。北京、上海等地设立国际人才社区，配套国际学校、医疗等服务设施。粤港澳大湾区实施更加开放的境外人才引进政策，允许港澳及外籍高层次人才担任科研机构负责人。 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 技术标准互认 </t>
+          <t xml:space="preserve"> 工业互联网 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19 </t>
+          <t xml:space="preserve"> 13 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中国与"一带一路"沿线15国签署《数字经济领域技术标准互认协议》，推动数字技术和标准"走出去"。 </t>
+          <t xml:space="preserve"> 工业互联网创新发展行动计划启动，"5G+工业互联网"融合应用深化，工业软件突破加速 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjhz_gzdt/202504/t20250416_189542.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_5d72e0ca64c5499eb28453ac5ff08e92.html </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中国与"一带一路"沿线15个国家签署的《数字经济领域技术标准互认协议》覆盖5G通信、工业互联网、智慧城市等领域的183项技术标准。协议采用"负面清单"管理模式，除了安全敏感领域外，其他领域标准将实现互认，大大简化了跨境技术合作和产品流通的认证流程。协议还建立了标准协调工作组机制，定期更新互认标准目录，协调解决标准实施中的技术争端。此举将有效促进中国数字技术、产品和服务"走出去"，支持中国企业参与沿线国家数字基础设施建设，同时也为构建数字丝绸之路奠定了技术基础。 </t>
+          <t xml:space="preserve"> 工信部印发《工业互联网创新发展行动计划(2025-2027年)》，提出建设20个国家级工业互联网平台。国家发改委、工信部联合启动"5G+工业互联网"融合应用试点，支持智能工厂建设。科技部设立"工业软件攻关专项"，重点突破EDA、CAE等核心工业软件。国家工业信息安全发展研究中心发布《工业互联网平台安全防护指南》，强化安全保障。各地加快推进工业互联网创新中心建设，如上海工业互联网创新中心、广东工业软件协同创新中心等，推动产业数字化转型。 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 生物降解材料 </t>
+          <t xml:space="preserve"> 联合研究 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17 </t>
+          <t xml:space="preserve"> 12 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委、科技部联合发布《生物降解材料产业创新发展指导意见》，提出到2030年生物降解材料产能达到500万吨。 </t>
+          <t xml:space="preserve"> 国际科技合作提质升级，中欧科技合作项目增加，"一带一路"科技创新行动计划深化 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250418_1379120.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/gjkjhz/gjkjhzdt/202504/t20250417_188798.html </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《生物降解材料产业创新发展指导意见》提出到2030年，生物降解材料产能达到500万吨，基本满足塑料制品替代需求，降解材料成本降低30%以上。指导意见重点支持聚乳酸(PLA)、聚羟基脂肪酸酯(PHA)等生物基降解材料和全生物降解复合材料的研发与产业化，培育10家具有国际竞争力的龙头企业。文件提出建设生物降解材料创新联盟和公共服务平台，加强标准体系建设和评价认证，推动降解材料在包装、农业和日用品等领域的规模化应用，构建从原料生产到回收利用的全产业链循环体系。 </t>
+          <t xml:space="preserve"> 科技部发布《"一带一路"科技创新行动计划(2025-2030)》，加强与共建国家科技合作。中国与德国签署《中德科技创新合作联合声明》，启动量子计算、新能源等领域联合研究计划。中国与法国建立人工智能伦理研究联合实验室，推动负责任AI发展。科技部、外交部联合推出"全球发展倡议科技促进计划"，支持发展中国家科技能力建设。中科院"一带一路"国际科学组织联盟新增5个成员，构建全球科研网络。多国科学家联合开展气候变化、传染病防控等领域研究，应对全球性挑战。 </t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,233 +1112,233 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院政府网 </t>
+          <t xml:space="preserve"> 中华人民共和国中央人民政府 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/12/content_6937321.htm </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/14/content_6126538.htm </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-12 </t>
+          <t xml:space="preserve"> 2025-04-14 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部官网 </t>
+          <t xml:space="preserve"> 中华人民共和国中央人民政府 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202504/t20250415_189532.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/16/content_6126843.htm </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-15 </t>
+          <t xml:space="preserve"> 2025-04-16 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 新华网 </t>
+          <t xml:space="preserve"> 中华人民共和国中央人民政府 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/politics/2025-04/16/c_1130425689.htm </t>
+          <t xml:space="preserve"> http://www.gov.cn/xinwen/202504/17/content_6127054.htm </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-16 </t>
+          <t xml:space="preserve"> 2025-04-17 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部官网 </t>
+          <t xml:space="preserve"> 中华人民共和国中央人民政府 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xwzx/202504/t20250414_189525.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/zhengceku/202504/15/content_6126732.htm </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-14 </t>
+          <t xml:space="preserve"> 2025-04-15 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委官网 </t>
+          <t xml:space="preserve"> 中华人民共和国中央人民政府 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250413_1378905.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/12/content_6126321.htm </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-13 </t>
+          <t xml:space="preserve"> 2025-04-12 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部官网 </t>
+          <t xml:space="preserve"> 国家发展和改革委员会 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/gfxwj2025/202504/t20250417_189546.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202504/t20250413_1405782.html </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-17 </t>
+          <t xml:space="preserve"> 2025-04-13 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工业和信息化部官网 </t>
+          <t xml:space="preserve"> 国家发展和改革委员会 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/zcjd/gzdt/art/2025/art_9e293c78be204fe896478517a5f0a6c5.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202504/t20250415_1406071.html </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-13 </t>
+          <t xml:space="preserve"> 2025-04-15 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院政府网 </t>
+          <t xml:space="preserve"> 科学技术部 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/15/content_6937490.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250412_188542.html </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-15 </t>
+          <t xml:space="preserve"> 2025-04-12 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工业和信息化部官网 </t>
+          <t xml:space="preserve"> 科学技术部 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_7d8e0254a5d142c6ab07cb2dba52b103.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/kjtjbg/202504/t20250415_188743.html </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-14 </t>
+          <t xml:space="preserve"> 2025-04-15 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委官网 </t>
+          <t xml:space="preserve"> 科学技术部 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/ghwb/202504/t20250416_1378995.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250414_188645.html </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-16 </t>
+          <t xml:space="preserve"> 2025-04-14 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 教育部官网 </t>
+          <t xml:space="preserve"> 科学技术部 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/moe_1778/202504/t20250413_684231.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/zdkjgh/202504/t20250416_188780.html </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-13 </t>
+          <t xml:space="preserve"> 2025-04-16 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院政府网 </t>
+          <t xml:space="preserve"> 科学技术部 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/14/content_6937412.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250417_188803.html </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-14 </t>
+          <t xml:space="preserve"> 2025-04-17 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北京市科委官网 </t>
+          <t xml:space="preserve"> 科学技术部 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://kjj.beijing.gov.cn/col/col5096/index.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250414_188636.html </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-16 </t>
+          <t xml:space="preserve"> 2025-04-14 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中国科学院官网 </t>
+          <t xml:space="preserve"> 科学技术部 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/yw/202504/t20250417_4973821.shtml </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/gjkjhz/gjkjhzdt/202504/t20250417_188798.html </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1350,46 +1350,46 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人力资源社会保障部官网 </t>
+          <t xml:space="preserve"> 工业和信息化部 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.mohrss.gov.cn/xxgk2020/fdzdgknr/zcfg/gfxwj/rcrs/202504/t20250415_489631.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_242f9262359c4fb18e80c38dcb34c95c.html </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-15 </t>
+          <t xml:space="preserve"> 2025-04-16 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工业和信息化部官网 </t>
+          <t xml:space="preserve"> 工业和信息化部 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/gxsj/jgzz/202504/t20250412_6987521.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_9c97a67935b344999b64c52c0d465d3a.html </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-12 </t>
+          <t xml:space="preserve"> 2025-04-15 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工业和信息化部官网 </t>
+          <t xml:space="preserve"> 工业和信息化部 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/yc/wjfb/art/2025/art_e8c95d0b5a124df79427cb0ad09e1d7a.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_f88e35a15b0047a789cfd1a2e2fb4fdd.html </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1401,68 +1401,221 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院政府网 </t>
+          <t xml:space="preserve"> 工业和信息化部 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/17/content_6937534.htm </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_5d72e0ca64c5499eb28453ac5ff08e92.html </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-17 </t>
+          <t xml:space="preserve"> 2025-04-15 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家知识产权局官网 </t>
+          <t xml:space="preserve"> 生态环境部 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cnipa.gov.cn/art/2025/4/16/art_75_187654.html </t>
+          <t xml:space="preserve"> https://www.mee.gov.cn/ywdt/tpxw/202504/t20250413_1107542.shtml </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-16 </t>
+          <t xml:space="preserve"> 2025-04-13 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部官网 </t>
+          <t xml:space="preserve"> 国家能源局 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjhz_gzdt/202504/t20250416_189542.html </t>
+          <t xml:space="preserve"> http://www.nea.gov.cn/2025-04/14/c_1310838225.htm </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-16 </t>
+          <t xml:space="preserve"> 2025-04-14 </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委官网 </t>
+          <t xml:space="preserve"> 科技日报 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250418_1379120.html </t>
+          <t xml:space="preserve"> http://www.stdaily.com/index/kejixinwen/202504/20250414d8a87ebf6a9d465cadc258f91b9c4f.shtml </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-18 </t>
+          <t xml:space="preserve"> 2025-04-14 </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 新华网 </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.xinhuanet.com/tech/20250415/6d3f9ef2c1034d15b942ad1f03d876a0/c.html </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-15 </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 中国高新技术产业导报 </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://paper.chinahightech.com/pc/content/202504/13/content_183543.html </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-13 </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 人民网科技 </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://scitech.people.com.cn/n1/2025/0415/c1007-40181743.html </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-15 </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 中国科学报 </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.sciencenet.cn/news/2025/4/16/news4895127.html </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-16 </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 经济参考报 </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://jjckb.xinhuanet.com/2025-04/14/c_139946254.htm </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-14 </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 澎湃新闻 </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.thepaper.cn/newsDetail_forward_27483956 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-17 </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 中国科学院 </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.cas.cn/yw/202504/t20250412_4967583.shtml </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-12 </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 上海市科学技术委员会 </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://stcsm.sh.gov.cn/xwzx/kjdt/20250415/350687.html </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-15 </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 北京中关村科技园区管理委员会 </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.bj.xinhuanet.com/bjpd-wq/zgc_index/20250416/20256481.html </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-16 </t>
         </is>
       </c>
     </row>
@@ -1495,12 +1648,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>五个最重要科技政策发展摘要:
-1. 国务院发布《新质生产力发展规划(2025-2035年)》，设立三阶段发展目标，明确十大重点领域，提出到2035年基本建成全球新质生产力发展高地。该规划系统部署了新质生产力发展的战略路径，将显著影响未来十年中国科技创新和产业发展格局。
-2. 中央全面深化改革委员会审议通过《创新驱动发展战略升级版实施方案》，强调科技自立自强作为国家发展战略支撑，提出优化国家创新体系、加快核心技术攻关、完善科技成果转化机制，推动科技与教育、人才、产业深度融合。
-3. 中共中央办公厅、国务院办公厅印发《关于深化科技体制改革激发创新活力的若干措施》，提出26项改革举措，涵盖科研管理、成果转化、人才评价等方面，旨在解决科技管理"痛点"，释放创新主体活力，为科技创新提供制度保障。
-4. 国务院批复同意在上海、北京、深圳、合肥设立首批国家级国际科技创新合作中心，这些中心将在人才引进、国际联合研发、科技成果转化等方面享有更大自主权，推动高水平对外开放创新平台建设。
-5. 中科院量子信息与量子科技创新研究院研制成功113量子比特超导量子计算机"悟空"，标志着中国在量子计算领域取得重大突破，同时发布开源量子计算软件平台"量易"，推动量子计算应用生态建设，为加速实现量子科技自立自强奠定基础。</t>
+          <t>Five Most Impactful News Summaries:
+1. 国务院发布《关于加快新质生产力发展的指导意见》，明确六大任务：强化科技创新引领、加快未来产业培育、推动传统产业转型升级、促进数实融合、优化区域布局和提升开放水平。各省市随后密集发布配套政策，北京重点布局智能机器人，上海聚焦集成电路，广东强调数字经济，系统性推进科技创新与产业转型升级。
+2. 国家发改委批复同意首批10个城市开展国家人工智能大模型创新应用先导区建设，加速AI与制造、医疗、交通等领域融合创新。科技部发布《人工智能伦理规范指引》，建立风险评估和安全测试框架。多地企业展示AI应用新成果，包括自动驾驶出租车、AI辅助医疗诊断系统和智能工厂解决方案，产业链上下游协同发展。
+3. 中共中央、国务院印发《关于深化科技体制机制改革的实施意见》，提出八大改革任务。科技部发布《科研项目经费管理优化实施方案》，大幅减轻科研人员负担。"揭榜挂帅"机制全面推广至重大科技项目，建立首席科学家负责制，破除"唯论文、唯职称、唯学历、唯奖项"评价导向，激发创新活力。
+4. 全国人大常委会审议《数字经济促进法》草案，首次从国家立法层面明确数字经济发展路径。国务院批复新增5个国家数字经济创新发展试验区。央行扩大数字人民币试点范围至20个省市。工信部发布《云计算与大数据产业高质量发展行动计划》，提出到2027年产业规模突破4万亿元。各地纷纷出台数字经济发展措施。
+5. 中国科学家实现76比特超导量子计算系统，量子优势再获突破。国家发改委批复建设国家量子计算创新中心，落户合肥。科技部启动量子信息科技创新重大项目，投入100亿元支持量子通信和量子计算研发。京沪粤三地启动量子技术联合攻关，推动量子信息技术产业化应用示范区建设。</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1558,7 +1711,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>创新驱动发展</t>
+          <t>科技体制改革</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1573,60 +1726,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>量子计算</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>量子通信</t>
+          <t>联合研究</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>人工智能</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>科技成果转化</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>人工智能</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>元宇宙</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>人工智能</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>知识产权保护</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1641,7 +1749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1678,13 +1786,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>创新驱动发展</t>
+          <t>量子技术</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1694,27 +1802,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>科技成果转化</t>
+          <t>半导体</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>量子通信</t>
+          <t>科技成果转化</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>量子计算</t>
+          <t>科技体制改革</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1724,7 +1832,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>知识产权保护</t>
+          <t>氢能</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1734,17 +1842,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>元宇宙</t>
+          <t>智慧城市</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>氢能</t>
+          <t>高端装备制造</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1754,7 +1862,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>科技体制改革</t>
+          <t>人才引进政策</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1764,7 +1872,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>国际人才服务</t>
+          <t>工业互联网</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1774,30 +1882,10 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>碳纤维复合材料</t>
+          <t>联合研究</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>技术标准互认</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>生物降解材料</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
         <v>1</v>
       </c>
     </row>
